--- a/InstanceFinlandV1.xlsx
+++ b/InstanceFinlandV1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mathieu/Documents/Work/PhD Years/PhD/Code/XWSRP/inputs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mathieu/Documents/Work/PhD Years/PhD/Code/XWSRP/inputs/new/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A335A1EF-00B4-EA4B-9B78-073C260AF94E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DE63051-8657-5F48-ADDB-759254352D32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16660" activeTab="1" xr2:uid="{745759C5-7123-8144-B92E-2C75C62BB0A9}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16660" activeTab="2" xr2:uid="{745759C5-7123-8144-B92E-2C75C62BB0A9}"/>
   </bookViews>
   <sheets>
     <sheet name="Employees" sheetId="1" r:id="rId1"/>
@@ -845,7 +845,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F05FA1B3-8D7F-3248-BF71-A6D83DF15FDE}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
@@ -894,8 +894,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEA72F52-AB34-1E4A-8B1D-E76BD6529E91}">
   <dimension ref="A1:H120"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1464,7 +1464,7 @@
         <v>54</v>
       </c>
       <c r="D22">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E22" t="s">
         <v>76</v>
